--- a/HiringProcessInCompany.xlsx
+++ b/HiringProcessInCompany.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2887CCC-E241-44ED-B310-01C26DF3D23F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F7DD7-CAAA-4FFA-9C13-4F57A09E0F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
   <si>
     <t>ApplicantName</t>
   </si>
@@ -113,15 +113,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,7 +136,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -140,6 +146,107 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -148,15 +255,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -507,123 +630,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349DA845-7F70-4463-8428-AA34B7D34AA4}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
